--- a/biology/Médecine/Fédération_nationale_des_orthophonistes/Fédération_nationale_des_orthophonistes.xlsx
+++ b/biology/Médecine/Fédération_nationale_des_orthophonistes/Fédération_nationale_des_orthophonistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_orthophonistes</t>
+          <t>Fédération_nationale_des_orthophonistes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération nationale des orthophonistes, abrégé en FNO, est un syndicat professionnel d'orthophonistes français fondé le 16 mars 1968 sur les bases du SNO (syndicat national des orthophonistes) créé en 1959 par Suzanne Borel-Maisonny, régi par la loi de juillet 1884 (organismes professionnels). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_orthophonistes</t>
+          <t>Fédération_nationale_des_orthophonistes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origines, création et développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir « inventé » la discipline en France à la fin des années 1930, Suzanne Borel-Maisonny crée l'ARPLOE (Association des Rééducateurs de la Parole et du Langage Oral et Écrit) vers 1955, association où se rencontrent des professionnels du secteur médical et du secteur éducatif. Ressentant la nécessité de créer une profession légale avec un cursus de formation initiale officiel (des cursus universitaires existent depuis 1955 à l'initiative de certains professeurs de médecine à Paris, Lyon, Marseille et Bordeaux, notamment), l'outil syndicat lui parait être le plus adapté pour négocier un statut légal avec les pouvoirs publics.
 C'est chose faite en 1964 (loi du 10 juillet) qui crée la profession, et permet à l'Université (facultés de médecine) de mettre en place un cursus au milieu des années 1960, qui sera réformé en 1972, puis en 1986 et  1997, et enfin en 2013 passant de deux années de formation à l'origine à cinq années universitaires en 2013. Le SNO grandissant, il est transformé en fédération le 16 mars 1968, quelques jours avant le début officiel des évènements de la même année (mouvement du 22 mars à Nanterre), fédération à laquelle adhère une dizaine de syndicats régionaux. Ce nombre augmente progressivement, jusqu'à atteindre en 1990 la vingtaine, où sont représentés aussi les orthophonistes d'outre-mer (Antilles-Guyane et Réunion).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_orthophonistes</t>
+          <t>Fédération_nationale_des_orthophonistes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Les président(e)s de la FNO</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si Suzanne Borel-Maisonny est présidente du SNO de 1959 à 1968, Claire Dinville lui succède jusqu'en 1970, puis sont présidentes chronologiquement Marie-Rose Mousset (1970-1974), Janie Ciabrini (1974-1977). Pierre Ferrand (1977-1986) et Jacques Roustit (1986-2004) seront ensuite à la tête de la fédération, et ce pour 27 ans. En 2004, alors que les femmes représentent 96,5 % de la profession, Nicole Denni-Krichel devient présidente de la fédération, et est reconduite dans ses fonctions en 2007 et en 2010. Anne Dehêtre est élue présidente en juin 2013 lors du Congrès fédéral de Saint-Malo, réélue en 2016 lors du congrès fédéral de Lyon et en 2019 lors du congrès de Bordeaux. Sarah Degiovani, orthophoniste en Île-de-France, est élue présidente de la FNO, lors du 29e congrès de la fédération, en juin 2022[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si Suzanne Borel-Maisonny est présidente du SNO de 1959 à 1968, Claire Dinville lui succède jusqu'en 1970, puis sont présidentes chronologiquement Marie-Rose Mousset (1970-1974), Janie Ciabrini (1974-1977). Pierre Ferrand (1977-1986) et Jacques Roustit (1986-2004) seront ensuite à la tête de la fédération, et ce pour 27 ans. En 2004, alors que les femmes représentent 96,5 % de la profession, Nicole Denni-Krichel devient présidente de la fédération, et est reconduite dans ses fonctions en 2007 et en 2010. Anne Dehêtre est élue présidente en juin 2013 lors du Congrès fédéral de Saint-Malo, réélue en 2016 lors du congrès fédéral de Lyon et en 2019 lors du congrès de Bordeaux. Sarah Degiovani, orthophoniste en Île-de-France, est élue présidente de la FNO, lors du 29e congrès de la fédération, en juin 2022.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_orthophonistes</t>
+          <t>Fédération_nationale_des_orthophonistes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Actions, services et associations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Très vite la FNO devient l'interlocuteur essentiel des pouvoirs publics, et est reconnue seule représentative de la profession au début des années 1970 ; elle signe avec la Sécurité sociale la première convention nationale d'assurance maladie en 1974. La FNO met aussi en place, dès 1971 (loi Chaban-Delmas sur la formation professionnelle continue), la formation continue des orthophonistes, organisée par les orthophonistes, financée par les seuls orthophonistes. La FNO organise aussi régulièrement des congrès scientifiques. Par ailleurs, elle représente, dès le début, à la fois les orthophonistes du secteur libéral et ceux du secteur salarié. Le nombre de ses adhérents augmente régulièrement avec la démographie de la profession, qui passe d'un millier vers 1975 à près de 16 000 en 2006, jusqu'à représenter 40 % de la profession (nombre des syndiqués). Mais son audience dépasse largement ce pourcentage. Vers 1980, la FNO crée un mensuel L'Orthophoniste dont le rédacteur en chef est Dominique Depoorter, auquel succède Michel Barbier en 2005; puis elle met en place des services de solidarité professionnelle (Assurance, association de gestion agréée, puis service juridique), et crée une maison d'édition, Ortho-Édition, gérée par Dominique Depoorter depuis 1982.
 En 1982, elle fonde aussi l'UNADRIO (Union Nationale pour le développement de la Recherche et de l'Information en Orthophonie) qui devient UNADREO (Union Nationale pour le Développement de la Recherche et de l'Evaluation en Orthophonie) en 2000 ; l'UNADREO est reconnue "société savante" pour la profession en 2005. Ses présidents ont été: Pierre Ferrand de 1982 à 1988, René Degiovani de 1988 à 1995, et actuellement, l'association est présidée par Thierry Rousseau. L'UNADREO édite depuis 1986 une revue scientifique destinée aux cliniciens et aux chercheurs : Glossa, les cahiers de l'UNADREO.
